--- a/data-raw/data-tidy/tech-yearbook/part08-output/03-teckmarket-pull/funds-2005.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/03-teckmarket-pull/funds-2005.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>20.434368</v>
+        <v>204343.68</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>246.870429</v>
+        <v>2468704.29</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>25.023934</v>
+        <v>250239.34</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>17.376103</v>
+        <v>173761.03</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>121.799915</v>
+        <v>1217999.15</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>11.630949</v>
+        <v>116309.49</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>5.387093</v>
+        <v>53870.93</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>9.335996</v>
+        <v>93359.96</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>30.18025</v>
+        <v>301802.5</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>35.842983</v>
+        <v>358429.83</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>15.392015</v>
+        <v>153920.15</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>39.384673</v>
+        <v>393846.73</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>35.716698</v>
+        <v>357166.98</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>13.499486</v>
+        <v>134994.86</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>84.919354</v>
+        <v>849193.54</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>13.231505</v>
+        <v>132315.05</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>85.586379</v>
+        <v>855863.79</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>30.151551</v>
+        <v>301515.51</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>3.526195</v>
+        <v>35261.95</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>2.917358</v>
+        <v>29173.58</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>1551.369443</v>
+        <v>15513694.43</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>114.369174</v>
+        <v>1143691.74</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>21.542984</v>
+        <v>215429.84</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>18.946885</v>
+        <v>189468.85</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>174.635846</v>
+        <v>1746358.46</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>23.166269</v>
+        <v>231662.69</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>38.130729</v>
+        <v>381307.29</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>0.798895</v>
+        <v>7988.95</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>15.602068</v>
+        <v>156020.68</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>29.425414</v>
+        <v>294254.14</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1100,7 +1100,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>58.942955</v>
+        <v>589429.55</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1120,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>32.27592</v>
+        <v>322759.2</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
